--- a/Finanzas/1_Febrero_Marzo_2017.xlsx
+++ b/Finanzas/1_Febrero_Marzo_2017.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="261">
   <si>
     <t>E L             D I N E R O         E  S             U N             R E C U R S O      L I M I T A D O</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>"Para pasar por algo de comer a las 7)</t>
-  </si>
-  <si>
-    <t>Llanta ponchada (11 nov)</t>
   </si>
   <si>
     <t>Deposito misterioso despues de que peleara con Fanny</t>
@@ -452,9 +449,6 @@
     <t>Garden (?)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Jaime Xbox</t>
   </si>
   <si>
@@ -558,18 +552,6 @@
   </si>
   <si>
     <t>Uber a San Lazaro</t>
-  </si>
-  <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>Dinero en bolso</t>
-  </si>
-  <si>
-    <t>Carl's Junior</t>
-  </si>
-  <si>
-    <t>Dulceria Cine</t>
   </si>
   <si>
     <t>Pre cumple!</t>
@@ -1001,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,6 +1134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1165,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1272,7 +1260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1305,7 +1292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1320,6 +1306,11 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="14" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE964"/>
+  <dimension ref="A1:BE963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B25" activeCellId="1" sqref="B20 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,20 +1630,20 @@
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="56">
         <v>42782</v>
       </c>
-      <c r="D1" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="78"/>
+      <c r="D1" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="77"/>
       <c r="S1" s="46"/>
       <c r="T1" s="46"/>
       <c r="U1" s="46"/>
       <c r="V1" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W1" s="46"/>
       <c r="X1" s="46"/>
@@ -1689,9 +1680,9 @@
       <c r="C2" s="58">
         <v>9702</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="84">
         <f>L3-C2</f>
-        <v>-5184.9299999999994</v>
+        <v>-5184.9899999999989</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>2</v>
@@ -1714,98 +1705,98 @@
         <v>11</v>
       </c>
       <c r="T2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="V2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>61</v>
-      </c>
       <c r="X2" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="44" t="s">
-        <v>76</v>
-      </c>
       <c r="AA2" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="67" t="s">
         <v>10</v>
       </c>
       <c r="AC2" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AF2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AG2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AH2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AI2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AK2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AL2" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AM2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AM2" s="36" t="s">
-        <v>74</v>
-      </c>
       <c r="AN2" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO2" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ2" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR2" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS2" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ2" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR2" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="62" t="s">
+      <c r="AT2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="62" t="s">
+      <c r="AU2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV2" s="62" t="s">
         <v>86</v>
-      </c>
-      <c r="AU2" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" s="62" t="s">
-        <v>87</v>
       </c>
       <c r="AX2" s="8"/>
       <c r="AY2" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="65" t="s">
         <v>89</v>
-      </c>
-      <c r="AZ2" s="65" t="s">
-        <v>90</v>
       </c>
       <c r="BA2" s="8"/>
     </row>
@@ -1817,8 +1808,8 @@
         <v>7</v>
       </c>
       <c r="L3" s="27">
-        <f>(SUM(C2,(E11:E501),(K11:K500)))-(SUM((D11:D501),(C11:C501)))</f>
-        <v>4517.0700000000006</v>
+        <f>(SUM(C2,(E11:E497),(K11:K499)))-(SUM((D11:D497),(C11:C497)))</f>
+        <v>4517.0100000000011</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1826,10 +1817,10 @@
         <v>42782</v>
       </c>
       <c r="T3" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U3" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V3" s="43">
         <f>(SUM(W3,X3))-Z3</f>
@@ -1840,17 +1831,17 @@
         <v>100</v>
       </c>
       <c r="Z3" s="53">
-        <f t="shared" ref="Z3:Z66" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
+        <f t="shared" ref="Z3:Z65" si="0">SUM(AA3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3)</f>
         <v>262.5</v>
       </c>
       <c r="AA3">
         <v>140</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD3">
         <v>80</v>
@@ -1933,21 +1924,21 @@
       <c r="M4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="100">
+      <c r="N4" s="98">
         <f>L3+L9</f>
-        <v>28686.07</v>
+        <v>28386.010000000002</v>
       </c>
       <c r="S4" s="49">
         <v>42783</v>
       </c>
       <c r="T4" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V4" s="43">
-        <f t="shared" ref="V4:V67" si="3">(SUM(W4,X4))-Z4</f>
+        <f t="shared" ref="V4:V66" si="3">(SUM(W4,X4))-Z4</f>
         <v>-70</v>
       </c>
       <c r="W4" s="52">
@@ -1962,10 +1953,10 @@
         <v>100</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD4">
         <v>9</v>
@@ -2021,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <f t="shared" ref="AU4:AU67" si="4">AT4*5</f>
+        <f t="shared" ref="AU4:AU66" si="4">AT4*5</f>
         <v>0</v>
       </c>
       <c r="AV4">
@@ -2029,11 +2020,11 @@
       </c>
       <c r="AX4" s="64"/>
       <c r="AY4" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ4" s="64">
-        <f>(SUM((AO3:AO520)))-(SUM((AS3:AS520)))</f>
-        <v>0</v>
+        <f>(SUM((AO3:AO519)))-(SUM((AS3:AS519)))</f>
+        <v>5</v>
       </c>
       <c r="BA4" s="64"/>
     </row>
@@ -2058,10 +2049,10 @@
         <v>42784</v>
       </c>
       <c r="T5" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U5" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V5" s="43">
         <f t="shared" si="3"/>
@@ -2074,7 +2065,7 @@
         <v>200</v>
       </c>
       <c r="Y5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z5" s="53">
         <f t="shared" si="0"/>
@@ -2084,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC5" s="59"/>
       <c r="AD5" s="59"/>
@@ -2158,8 +2149,8 @@
         <v>9</v>
       </c>
       <c r="L6" s="54">
-        <f>(SUM((Q11:Q501),(V3:V520)))-(SUM(E11:E501))</f>
-        <v>-153</v>
+        <f>(SUM((Q11:Q500),(V3:V519)))-(SUM(E11:E497))</f>
+        <v>-23</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
@@ -2167,10 +2158,10 @@
         <v>42785</v>
       </c>
       <c r="T6" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="U6" s="74" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="U6" s="73" t="s">
+        <v>108</v>
       </c>
       <c r="V6" s="43">
         <f t="shared" si="3"/>
@@ -2181,7 +2172,7 @@
       </c>
       <c r="X6" s="52"/>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z6" s="53">
         <f t="shared" si="0"/>
@@ -2191,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2253,13 +2244,13 @@
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AX6" s="79"/>
+      <c r="AX6" s="78"/>
       <c r="AY6" s="64"/>
       <c r="AZ6" s="64"/>
       <c r="BA6" s="64"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="77"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -2270,10 +2261,10 @@
         <v>42786</v>
       </c>
       <c r="T7" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U7" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V7" s="43">
         <f t="shared" si="3"/>
@@ -2291,10 +2282,10 @@
         <v>70</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD7">
         <v>10</v>
@@ -2364,10 +2355,10 @@
         <v>42787</v>
       </c>
       <c r="T8" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U8" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V8" s="43">
         <f t="shared" si="3"/>
@@ -2376,11 +2367,11 @@
       <c r="W8" s="52">
         <v>75</v>
       </c>
-      <c r="X8" s="76">
+      <c r="X8" s="75">
         <v>9</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z8" s="53">
         <f t="shared" si="0"/>
@@ -2390,10 +2381,10 @@
         <v>70</v>
       </c>
       <c r="AB8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD8">
         <v>9</v>
@@ -2465,7 +2456,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="G9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -2474,11 +2465,11 @@
         <v>25</v>
       </c>
       <c r="L9" s="15">
-        <f>SUM(L11:L500)</f>
-        <v>24169</v>
+        <f>SUM(L11:L499)</f>
+        <v>23869</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -2487,10 +2478,10 @@
         <v>42788</v>
       </c>
       <c r="T9" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="U9" s="51" t="s">
-        <v>122</v>
       </c>
       <c r="V9" s="43">
         <f t="shared" si="3"/>
@@ -2501,7 +2492,7 @@
         <v>500</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z9" s="53">
         <f t="shared" si="0"/>
@@ -2511,10 +2502,10 @@
         <v>100</v>
       </c>
       <c r="AB9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC9" t="s">
         <v>124</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>125</v>
       </c>
       <c r="AD9">
         <v>50</v>
@@ -2610,28 +2601,28 @@
         <v>21</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="59" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S10" s="49">
         <v>42789</v>
       </c>
       <c r="T10" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U10" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V10" s="43">
         <f t="shared" si="3"/>
@@ -2647,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AC10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AD10">
         <v>25</v>
@@ -2714,11 +2705,11 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="103">
         <v>42782</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="12">
@@ -2732,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="24">
         <v>5000</v>
@@ -2741,17 +2732,17 @@
         <v>0</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" ref="L11:L26" si="5">J11-K11</f>
+        <f t="shared" ref="L11:L25" si="5">J11-K11</f>
         <v>5000</v>
       </c>
       <c r="N11" s="60">
         <v>42782</v>
       </c>
       <c r="O11" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="59" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="59" t="s">
-        <v>58</v>
       </c>
       <c r="Q11" s="39">
         <v>500</v>
@@ -2760,10 +2751,10 @@
         <v>42790</v>
       </c>
       <c r="T11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U11" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V11" s="43">
         <f t="shared" si="3"/>
@@ -2779,10 +2770,10 @@
         <v>24</v>
       </c>
       <c r="AB11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -2846,11 +2837,11 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="102">
         <v>42782</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12">
         <v>60</v>
@@ -2862,7 +2853,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="24">
         <v>2500</v>
@@ -2878,10 +2869,10 @@
         <v>42796</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" s="59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="39">
         <v>465</v>
@@ -2890,17 +2881,17 @@
         <v>42791</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V12" s="43">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="W12" s="52"/>
-      <c r="X12" s="76">
+      <c r="X12" s="75">
         <v>120</v>
       </c>
       <c r="Z12" s="53">
@@ -2911,7 +2902,7 @@
         <v>70</v>
       </c>
       <c r="AB12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2975,11 +2966,11 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="103">
         <v>42782</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12">
@@ -2991,7 +2982,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="24">
         <v>1000</v>
@@ -3007,10 +2998,10 @@
         <v>42798</v>
       </c>
       <c r="O13" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P13" s="59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="39">
         <v>600</v>
@@ -3019,10 +3010,10 @@
         <v>42792</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U13" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V13" s="43">
         <f t="shared" si="3"/>
@@ -3033,7 +3024,7 @@
         <v>350</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="53">
         <f t="shared" si="0"/>
@@ -3043,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD13">
         <v>20</v>
@@ -3098,7 +3089,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="80">
+      <c r="AT13" s="79">
         <v>0</v>
       </c>
       <c r="AU13">
@@ -3110,11 +3101,11 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="103">
         <v>42784</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12">
@@ -3126,7 +3117,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="24">
         <v>500</v>
@@ -3145,7 +3136,7 @@
         <v>29</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="39">
         <v>500</v>
@@ -3154,10 +3145,10 @@
         <v>42793</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U14" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V14" s="43">
         <f t="shared" si="3"/>
@@ -3175,10 +3166,10 @@
         <v>40</v>
       </c>
       <c r="AB14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AC14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AD14">
         <v>8</v>
@@ -3242,26 +3233,26 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
+      <c r="A15" s="102">
         <v>42787</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="101">
+      <c r="D15" s="99">
         <v>165.23</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="91" t="s">
-        <v>244</v>
+      <c r="F15" s="89" t="s">
+        <v>238</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="59" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="24">
         <v>110</v>
@@ -3277,10 +3268,10 @@
         <v>42803</v>
       </c>
       <c r="O15" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="39">
         <v>400</v>
@@ -3289,10 +3280,10 @@
         <v>42794</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="U15" s="74" t="s">
-        <v>151</v>
+        <v>113</v>
+      </c>
+      <c r="U15" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="V15" s="43">
         <f t="shared" si="3"/>
@@ -3305,7 +3296,7 @@
         <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z15" s="53">
         <f t="shared" si="0"/>
@@ -3315,10 +3306,10 @@
         <v>60</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD15">
         <v>10</v>
@@ -3382,15 +3373,15 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="103">
         <v>42790</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="101">
-        <v>169.93</v>
+      <c r="D16" s="99">
+        <v>170.67</v>
       </c>
       <c r="E16" s="14"/>
       <c r="G16" s="59"/>
@@ -3398,7 +3389,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="24">
         <v>500</v>
@@ -3414,10 +3405,10 @@
         <v>42817</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="39">
         <v>400</v>
@@ -3426,10 +3417,10 @@
         <v>42795</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U16" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V16" s="43">
         <f t="shared" si="3"/>
@@ -3442,9 +3433,9 @@
         <v>50</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z16" s="83">
+        <v>154</v>
+      </c>
+      <c r="Z16" s="82">
         <f t="shared" si="0"/>
         <v>125.5</v>
       </c>
@@ -3452,10 +3443,10 @@
         <v>70</v>
       </c>
       <c r="AB16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AD16" s="19">
         <v>20</v>
@@ -3520,11 +3511,11 @@
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="103">
         <v>42790</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12">
@@ -3536,7 +3527,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="24">
         <v>100</v>
@@ -3552,20 +3543,20 @@
         <v>42824</v>
       </c>
       <c r="O17" s="59" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P17" s="59" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="39"/>
       <c r="S17" s="49">
         <v>42796</v>
       </c>
       <c r="T17" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U17" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V17" s="43">
         <f t="shared" si="3"/>
@@ -3574,7 +3565,7 @@
       <c r="W17" s="52">
         <v>75</v>
       </c>
-      <c r="X17" s="76"/>
+      <c r="X17" s="75"/>
       <c r="Z17" s="53">
         <f t="shared" si="0"/>
         <v>57.5</v>
@@ -3583,10 +3574,10 @@
         <v>40</v>
       </c>
       <c r="AB17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD17">
         <v>3</v>
@@ -3652,15 +3643,15 @@
       <c r="BE17" s="40"/>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>138</v>
+      <c r="A18" s="103">
+        <v>42793</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12">
-        <v>17.11</v>
+        <v>17.23</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="40"/>
@@ -3669,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" s="24">
         <v>100</v>
@@ -3689,12 +3680,12 @@
         <v>42797</v>
       </c>
       <c r="T18" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U18" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="V18" s="84">
+        <v>162</v>
+      </c>
+      <c r="V18" s="83">
         <f t="shared" si="3"/>
         <v>-15.5</v>
       </c>
@@ -3710,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD18">
         <v>80</v>
@@ -3777,11 +3768,11 @@
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="94">
         <v>42793</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -3793,12 +3784,12 @@
         <v>24</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="24">
         <v>850</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="74">
         <v>0</v>
       </c>
       <c r="L19" s="21">
@@ -3813,10 +3804,10 @@
         <v>42798</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V19" s="43">
         <f t="shared" si="3"/>
@@ -3829,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z19" s="53">
         <f t="shared" si="0"/>
@@ -3839,10 +3830,10 @@
         <v>30</v>
       </c>
       <c r="AB19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AD19">
         <v>6</v>
@@ -3907,15 +3898,15 @@
       <c r="BA19" s="40"/>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>42794</v>
-      </c>
-      <c r="B20" t="s">
-        <v>149</v>
+      <c r="A20" s="105">
+        <v>42798</v>
+      </c>
+      <c r="B20" s="106" t="s">
+        <v>170</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="73">
-        <v>170</v>
+      <c r="D20" s="12">
+        <v>10.27</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="59"/>
@@ -3923,59 +3914,51 @@
         <v>24</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="24">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K20" s="23">
         <v>0</v>
       </c>
       <c r="L20" s="21">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="39"/>
       <c r="S20" s="49">
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="T20" s="50" t="s">
         <v>107</v>
       </c>
       <c r="U20" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V20" s="43">
         <f t="shared" si="3"/>
-        <v>-130</v>
+        <v>-20.5</v>
       </c>
       <c r="W20" s="52">
-        <v>120</v>
-      </c>
-      <c r="X20" s="52">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>175</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="X20" s="52"/>
       <c r="Z20" s="53">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>145.5</v>
       </c>
       <c r="AA20">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="AD20">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -4005,23 +3988,24 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>15</v>
+        <f t="shared" ref="AN20:AN83" si="6">SUM(AO20,AV20,AU20)</f>
+        <v>85.5</v>
       </c>
       <c r="AO20">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="40">
+        <v>2</v>
       </c>
       <c r="AS20">
-        <f>(AP20*8)+(AR20*5)</f>
-        <v>20</v>
+        <f>(AP20*6)+(AQ20*8)+(AR20*5)</f>
+        <v>22</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -4031,71 +4015,73 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
-        <v>42794</v>
+      <c r="A21" s="102">
+        <v>42798</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="12">
-        <v>17.22</v>
+        <v>171</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="72">
+        <v>72.709999999999994</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="59" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="24">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="K21" s="23">
         <v>0</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
       <c r="Q21" s="39"/>
       <c r="S21" s="49">
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="T21" s="50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U21" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V21" s="43">
         <f t="shared" si="3"/>
-        <v>-20.5</v>
+        <v>14.5</v>
       </c>
       <c r="W21" s="52">
-        <v>125</v>
-      </c>
-      <c r="X21" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="X21" s="86"/>
       <c r="Z21" s="53">
         <f t="shared" si="0"/>
-        <v>145.5</v>
+        <v>60.5</v>
       </c>
       <c r="AA21">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD21" s="40">
+        <v>50</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -4125,24 +4111,24 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" ref="AN21:AN84" si="6">SUM(AO21,AV21,AU21)</f>
-        <v>85.5</v>
+        <f t="shared" si="6"/>
+        <v>10.5</v>
       </c>
       <c r="AO21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
         <v>0</v>
       </c>
       <c r="AR21" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS21">
-        <f>(AP21*6)+(AQ21*8)+(AR21*5)</f>
-        <v>22</v>
+        <f t="shared" ref="AS21:AS84" si="7">(AP21*6)+(AQ21*8)+(AR21*5)</f>
+        <v>25</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -4152,73 +4138,81 @@
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
-        <v>42798</v>
+      <c r="A22" s="94">
+        <v>42800</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="12">
-        <v>10.27</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14">
+        <v>900</v>
+      </c>
       <c r="G22" s="59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="24">
-        <v>1800</v>
+        <v>10000</v>
       </c>
       <c r="K22" s="23">
         <v>0</v>
       </c>
       <c r="L22" s="21">
         <f t="shared" si="5"/>
-        <v>1800</v>
+        <v>10000</v>
       </c>
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
       <c r="Q22" s="39"/>
       <c r="S22" s="49">
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="T22" s="50" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="U22" s="51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="V22" s="43">
         <f t="shared" si="3"/>
-        <v>14.5</v>
-      </c>
-      <c r="W22" s="52">
+        <v>-8.5</v>
+      </c>
+      <c r="W22" s="75">
         <v>75</v>
       </c>
-      <c r="X22" s="87"/>
+      <c r="X22" s="75">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
       <c r="Z22" s="53">
         <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>133.5</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>179</v>
       </c>
       <c r="AC22" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD22" s="40">
-        <v>50</v>
+        <v>146</v>
+      </c>
+      <c r="AD22">
+        <v>7.5</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -4249,23 +4243,23 @@
       </c>
       <c r="AN22">
         <f t="shared" si="6"/>
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
-      <c r="AR22" s="40">
-        <v>5</v>
+      <c r="AR22">
+        <v>2</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS85" si="7">(AP22*6)+(AQ22*8)+(AR22*5)</f>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -4275,83 +4269,74 @@
         <v>0</v>
       </c>
       <c r="AV22">
-        <v>10.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
-        <v>42798</v>
+      <c r="A23" s="103">
+        <v>42802</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="73">
-        <v>73.900000000000006</v>
+      <c r="D23" s="90">
+        <v>142.72999999999999</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="G23" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="24">
-        <v>10000</v>
-      </c>
-      <c r="K23" s="23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+      <c r="G23" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="69">
+        <v>150</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="71">
+        <v>0</v>
       </c>
       <c r="N23" s="59"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
       <c r="Q23" s="39"/>
       <c r="S23" s="49">
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="T23" s="50" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="U23" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V23" s="43">
         <f t="shared" si="3"/>
-        <v>-8.5</v>
-      </c>
-      <c r="W23" s="76">
+        <v>-30</v>
+      </c>
+      <c r="W23" s="52">
         <v>75</v>
       </c>
-      <c r="X23" s="76">
-        <v>50</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>186</v>
-      </c>
+      <c r="X23" s="52"/>
       <c r="Z23" s="53">
         <f t="shared" si="0"/>
-        <v>133.5</v>
+        <v>105</v>
       </c>
       <c r="AA23">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AD23">
-        <v>7.5</v>
-      </c>
-      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="40">
         <v>0</v>
       </c>
       <c r="AF23">
@@ -4378,12 +4363,12 @@
       <c r="AM23">
         <v>0</v>
       </c>
-      <c r="AN23">
+      <c r="AN23" s="40">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP23">
         <v>2</v>
@@ -4392,11 +4377,11 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -4406,55 +4391,57 @@
         <v>0</v>
       </c>
       <c r="AV23">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
-        <v>42800</v>
+      <c r="A24" s="103">
+        <v>42802</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14">
-        <v>900</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="70">
-        <v>150</v>
-      </c>
-      <c r="K24" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="72">
-        <v>0</v>
+      <c r="D24" s="12">
+        <v>161.15</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="G24" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="24">
+        <f>85*7</f>
+        <v>595</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="5"/>
+        <v>595</v>
       </c>
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
       <c r="Q24" s="39"/>
       <c r="S24" s="49">
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="T24" s="50" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="U24" s="51" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="V24" s="43">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-257.5</v>
       </c>
       <c r="W24" s="52">
         <v>75</v>
@@ -4462,19 +4449,22 @@
       <c r="X24" s="52"/>
       <c r="Z24" s="53">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>332.5</v>
       </c>
       <c r="AA24">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AB24" t="s">
-        <v>119</v>
+        <v>183</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>214</v>
       </c>
       <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="40">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AE24" s="88">
+        <v>12</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -4500,25 +4490,25 @@
       <c r="AM24">
         <v>0</v>
       </c>
-      <c r="AN24" s="40">
+      <c r="AN24">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>60.5</v>
       </c>
       <c r="AO24">
-        <v>30</v>
-      </c>
-      <c r="AP24">
+        <v>40</v>
+      </c>
+      <c r="AP24" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
         <v>2</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>3</v>
       </c>
       <c r="AS24">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AT24">
         <v>0</v>
@@ -4528,89 +4518,93 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="105">
         <v>42802</v>
       </c>
-      <c r="B25" t="s">
-        <v>188</v>
+      <c r="B25" s="106" t="s">
+        <v>148</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="92">
-        <v>142.35</v>
+      <c r="D25" s="12">
+        <v>129.34</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="G25" s="88" t="s">
-        <v>30</v>
+      <c r="G25" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="H25" s="59" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25" s="24">
-        <f>85*7</f>
-        <v>595</v>
+        <v>234</v>
       </c>
       <c r="K25" s="23">
         <v>0</v>
       </c>
       <c r="L25" s="21">
         <f t="shared" si="5"/>
-        <v>595</v>
+        <v>234</v>
       </c>
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
       <c r="Q25" s="39"/>
       <c r="S25" s="49">
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="T25" s="50" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="U25" s="51" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V25" s="43">
         <f t="shared" si="3"/>
-        <v>-257.5</v>
+        <v>-190</v>
       </c>
       <c r="W25" s="52">
-        <v>75</v>
-      </c>
-      <c r="X25" s="52"/>
+        <v>300</v>
+      </c>
+      <c r="X25" s="52">
+        <v>500</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>186</v>
+      </c>
       <c r="Z25" s="53">
         <f t="shared" si="0"/>
-        <v>332.5</v>
+        <v>990</v>
       </c>
       <c r="AA25">
+        <v>200</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD25">
         <v>250</v>
       </c>
-      <c r="AB25" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD25">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="90">
-        <v>12</v>
+      <c r="AE25">
+        <v>290</v>
       </c>
       <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="AG25" s="88">
+        <v>20</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -4629,23 +4623,23 @@
       </c>
       <c r="AN25">
         <f t="shared" si="6"/>
-        <v>60.5</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>40</v>
-      </c>
-      <c r="AP25" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP25">
         <v>0</v>
       </c>
       <c r="AQ25">
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS25">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -4655,93 +4649,87 @@
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>20.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
-        <v>42802</v>
+      <c r="A26" s="103">
+        <v>42805</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12">
-        <v>160.88</v>
+        <v>201</v>
       </c>
       <c r="E26" s="14"/>
       <c r="G26" s="59" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="J26" s="24">
-        <v>234</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="5"/>
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="N26" s="59"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
       <c r="Q26" s="39"/>
       <c r="S26" s="49">
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="T26" s="50" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U26" s="51" t="s">
         <v>191</v>
       </c>
       <c r="V26" s="43">
         <f t="shared" si="3"/>
-        <v>-190</v>
+        <v>50</v>
       </c>
       <c r="W26" s="52">
-        <v>300</v>
-      </c>
-      <c r="X26" s="52">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="X26" s="52"/>
       <c r="Y26" t="s">
         <v>192</v>
       </c>
       <c r="Z26" s="53">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="AD26">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>100</v>
-      </c>
-      <c r="AG26" s="90">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -4772,11 +4760,11 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -4790,74 +4778,77 @@
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
-        <v>42802</v>
+      <c r="A27" s="104">
+        <v>42805</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="12">
-        <v>129.34</v>
+        <v>41.63</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="G27" s="59" t="s">
-        <v>93</v>
+      <c r="G27" s="60">
+        <v>42789</v>
       </c>
       <c r="H27" s="59" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="J27" s="24">
-        <v>80</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K27" s="23"/>
       <c r="L27" s="21">
-        <v>30</v>
+        <f>J27-K27</f>
+        <v>100</v>
       </c>
       <c r="N27" s="59"/>
       <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
+      <c r="P27" s="59" t="s">
+        <v>199</v>
+      </c>
       <c r="Q27" s="39"/>
       <c r="S27" s="49">
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="T27" s="50" t="s">
         <v>107</v>
       </c>
       <c r="U27" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="V27" s="43">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>347.5</v>
       </c>
       <c r="W27" s="52">
-        <v>50</v>
-      </c>
-      <c r="X27" s="52"/>
+        <v>175</v>
+      </c>
+      <c r="X27" s="52">
+        <v>220</v>
+      </c>
       <c r="Y27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z27" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>144</v>
+        <v>47.5</v>
+      </c>
+      <c r="AA27" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>198</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -4885,13 +4876,13 @@
       </c>
       <c r="AN27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -4901,88 +4892,92 @@
       </c>
       <c r="AS27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
-        <v>42804</v>
+      <c r="A28" s="103">
+        <v>42807</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12">
-        <v>161.15</v>
+        <v>354</v>
       </c>
       <c r="E28" s="14"/>
       <c r="G28" s="60">
-        <v>42789</v>
+        <v>42794</v>
       </c>
       <c r="H28" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>128</v>
+        <v>151</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>152</v>
       </c>
       <c r="J28" s="24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="21">
-        <f>J28-K28</f>
-        <v>100</v>
+        <f t="shared" ref="L28:L32" si="8">J28-K28</f>
+        <v>10</v>
       </c>
       <c r="N28" s="59"/>
       <c r="O28" s="59"/>
-      <c r="P28" s="59" t="s">
-        <v>205</v>
-      </c>
+      <c r="P28" s="59"/>
       <c r="Q28" s="39"/>
       <c r="S28" s="49">
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="T28" s="50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U28" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="V28" s="43">
         <f t="shared" si="3"/>
-        <v>347.5</v>
+        <v>-93.5</v>
       </c>
       <c r="W28" s="52">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="X28" s="52">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Z28" s="53">
         <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-      <c r="AA28" s="40">
-        <v>0</v>
+        <v>188.5</v>
+      </c>
+      <c r="AA28">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>200</v>
       </c>
       <c r="AC28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD28">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="AE28">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5010,108 +5005,104 @@
       </c>
       <c r="AN28">
         <f t="shared" si="6"/>
-        <v>35.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU28">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV28">
         <v>15.5</v>
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
-        <v>42804</v>
+      <c r="A29" s="103">
+        <v>42812</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12">
-        <v>142.72999999999999</v>
+        <v>127.61</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="G29" s="60">
-        <v>42794</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="J29" s="24">
-        <v>10</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="21">
-        <f t="shared" ref="L29:L33" si="8">J29-K29</f>
-        <v>10</v>
+      <c r="G29" s="94">
+        <v>42795</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="95">
+        <v>20</v>
+      </c>
+      <c r="K29" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="97">
+        <v>0</v>
       </c>
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
       <c r="Q29" s="39"/>
       <c r="S29" s="49">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="T29" s="50" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="U29" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="V29" s="43">
+        <v>202</v>
+      </c>
+      <c r="V29" s="83">
         <f t="shared" si="3"/>
-        <v>-93.5</v>
+        <v>-25.5</v>
       </c>
       <c r="W29" s="52">
         <v>75</v>
       </c>
-      <c r="X29" s="52">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>201</v>
-      </c>
+      <c r="X29" s="52"/>
       <c r="Z29" s="53">
         <f t="shared" si="0"/>
-        <v>188.5</v>
+        <v>100.5</v>
       </c>
       <c r="AA29">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="AC29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AD29">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5139,9 +5130,9 @@
       </c>
       <c r="AN29">
         <f t="shared" si="6"/>
-        <v>15.5</v>
-      </c>
-      <c r="AO29">
+        <v>10.5</v>
+      </c>
+      <c r="AO29" s="40">
         <v>0</v>
       </c>
       <c r="AP29">
@@ -5150,14 +5141,14 @@
       <c r="AQ29">
         <v>0</v>
       </c>
-      <c r="AR29">
-        <v>1</v>
+      <c r="AR29" s="40">
+        <v>0</v>
       </c>
       <c r="AS29">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="40">
         <v>0</v>
       </c>
       <c r="AU29">
@@ -5165,37 +5156,37 @@
         <v>0</v>
       </c>
       <c r="AV29">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
-        <v>42805</v>
+        <v>42821</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="12">
-        <v>201</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="96">
-        <v>42795</v>
+      <c r="D30" s="12"/>
+      <c r="E30" s="14">
+        <v>500</v>
+      </c>
+      <c r="G30" s="94">
+        <v>42816</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="97">
-        <v>20</v>
-      </c>
-      <c r="K30" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="99">
+        <v>211</v>
+      </c>
+      <c r="J30" s="95">
+        <v>150</v>
+      </c>
+      <c r="K30" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="97">
         <v>0</v>
       </c>
       <c r="N30" s="59"/>
@@ -5203,17 +5194,17 @@
       <c r="P30" s="59"/>
       <c r="Q30" s="39"/>
       <c r="S30" s="49">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="T30" s="50" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="U30" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="V30" s="84">
+        <v>205</v>
+      </c>
+      <c r="V30" s="43">
         <f t="shared" si="3"/>
-        <v>-25.5</v>
+        <v>-147.5</v>
       </c>
       <c r="W30" s="52">
         <v>75</v>
@@ -5221,22 +5212,22 @@
       <c r="X30" s="52"/>
       <c r="Z30" s="53">
         <f t="shared" si="0"/>
-        <v>100.5</v>
+        <v>222.5</v>
       </c>
       <c r="AA30">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="AC30" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AD30">
-        <v>10</v>
-      </c>
-      <c r="AE30">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="AE30" s="88">
+        <v>128</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5264,10 +5255,10 @@
       </c>
       <c r="AN30">
         <f t="shared" si="6"/>
-        <v>10.5</v>
-      </c>
-      <c r="AO30" s="40">
-        <v>0</v>
+        <v>34.5</v>
+      </c>
+      <c r="AO30" s="88">
+        <v>20</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -5275,14 +5266,14 @@
       <c r="AQ30">
         <v>0</v>
       </c>
-      <c r="AR30" s="40">
-        <v>0</v>
+      <c r="AR30">
+        <v>1</v>
       </c>
       <c r="AS30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT30" s="40">
+        <v>5</v>
+      </c>
+      <c r="AT30">
         <v>0</v>
       </c>
       <c r="AU30">
@@ -5290,55 +5281,54 @@
         <v>0</v>
       </c>
       <c r="AV30">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
-        <v>42805</v>
-      </c>
-      <c r="B31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12">
-        <v>52.79</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="G31" s="96">
-        <v>42816</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31" s="97">
-        <v>150</v>
-      </c>
-      <c r="K31" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="L31" s="99">
-        <v>0</v>
+      <c r="A31" s="93">
+        <v>42821</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91">
+        <v>-140</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="G31" s="60">
+        <v>42802</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="24">
+        <v>140</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="21">
+        <f t="shared" si="8"/>
+        <v>140</v>
       </c>
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
       <c r="Q31" s="39"/>
       <c r="S31" s="49">
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="T31" s="50" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="U31" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V31" s="43">
         <f t="shared" si="3"/>
-        <v>-147.5</v>
+        <v>-410.5</v>
       </c>
       <c r="W31" s="52">
         <v>75</v>
@@ -5346,22 +5336,19 @@
       <c r="X31" s="52"/>
       <c r="Z31" s="53">
         <f t="shared" si="0"/>
-        <v>222.5</v>
+        <v>485.5</v>
       </c>
       <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>225</v>
+        <v>450</v>
+      </c>
+      <c r="AB31" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="AD31">
-        <v>60</v>
-      </c>
-      <c r="AE31" s="90">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -5389,97 +5376,97 @@
       </c>
       <c r="AN31">
         <f t="shared" si="6"/>
-        <v>34.5</v>
-      </c>
-      <c r="AO31" s="90">
-        <v>20</v>
+        <v>35.5</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS31">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AT31" s="12">
+        <v>1</v>
       </c>
       <c r="AU31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV31">
-        <v>14.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
-        <v>42807</v>
-      </c>
-      <c r="B32" t="s">
-        <v>200</v>
+        <v>42823</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="12">
-        <v>354</v>
+      <c r="D32" s="72">
+        <v>156.22</v>
       </c>
       <c r="E32" s="14"/>
       <c r="G32" s="60">
         <v>42802</v>
       </c>
       <c r="H32" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J32" s="24">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="21">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N32" s="59"/>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
       <c r="Q32" s="39"/>
       <c r="S32" s="49">
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="T32" s="50" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="U32" s="51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V32" s="43">
         <f t="shared" si="3"/>
-        <v>-410.5</v>
+        <v>26</v>
       </c>
       <c r="W32" s="52">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="X32" s="52"/>
       <c r="Z32" s="53">
         <f t="shared" si="0"/>
-        <v>485.5</v>
-      </c>
-      <c r="AA32">
-        <v>450</v>
-      </c>
-      <c r="AB32" s="40" t="s">
-        <v>226</v>
+        <v>94</v>
+      </c>
+      <c r="AA32" s="88">
+        <v>62</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>213</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -5510,100 +5497,86 @@
       </c>
       <c r="AN32">
         <f t="shared" si="6"/>
-        <v>35.5</v>
+        <v>20</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS32">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="AT32" s="12">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
       </c>
       <c r="AU32">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV32">
-        <v>30.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
-        <v>42812</v>
+        <v>42823</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12">
-        <v>127.61</v>
+        <v>219.16</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="G33" s="60">
-        <v>42802</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" s="24">
-        <v>200</v>
-      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="23"/>
-      <c r="L33" s="21">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
+      <c r="L33" s="21"/>
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="39"/>
       <c r="S33" s="49">
-        <v>42812</v>
+        <v>42813</v>
       </c>
       <c r="T33" s="50" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U33" s="51" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="V33" s="43">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W33" s="52">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="X33" s="52"/>
       <c r="Z33" s="53">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="AA33" s="90">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="AD33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -5634,10 +5607,10 @@
       </c>
       <c r="AN33">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>0</v>
@@ -5646,11 +5619,11 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS33">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -5665,16 +5638,16 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
-        <v>42821</v>
+        <v>42824</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14">
-        <v>500</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="12">
+        <v>53</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -5686,34 +5659,37 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="39"/>
       <c r="S34" s="49">
-        <v>42813</v>
+        <v>0</v>
       </c>
       <c r="T34" s="50" t="s">
         <v>107</v>
       </c>
       <c r="U34" s="51" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="V34" s="43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W34" s="52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X34" s="52"/>
       <c r="Z34" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>212</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -5744,7 +5720,7 @@
       </c>
       <c r="AN34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -5763,28 +5739,28 @@
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A35" s="95">
-        <v>42821</v>
-      </c>
-      <c r="B35" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93">
-        <v>-642</v>
-      </c>
-      <c r="E35" s="94"/>
+      <c r="A35" s="34">
+        <v>42825</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12">
+        <v>217.9</v>
+      </c>
+      <c r="E35" s="14"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
@@ -5796,40 +5772,42 @@
       <c r="P35" s="59"/>
       <c r="Q35" s="39"/>
       <c r="S35" s="49">
-        <v>0</v>
+        <v>42815</v>
       </c>
       <c r="T35" s="50" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="U35" s="51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V35" s="43">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>-122.5</v>
       </c>
       <c r="W35" s="52">
-        <v>100</v>
-      </c>
-      <c r="X35" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="X35" s="52">
+        <v>80</v>
+      </c>
       <c r="Z35" s="53">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>277.5</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB35" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="AC35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AD35">
-        <v>11</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>150</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -5857,44 +5835,47 @@
       </c>
       <c r="AN35">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>55.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU35">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
-        <v>42823</v>
+        <v>42825</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="12">
-        <v>156.22</v>
-      </c>
-      <c r="E36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14">
+        <v>250</v>
+      </c>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -5906,42 +5887,45 @@
       <c r="P36" s="59"/>
       <c r="Q36" s="39"/>
       <c r="S36" s="49">
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="T36" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="U36" s="51" t="s">
         <v>216</v>
-      </c>
-      <c r="U36" s="51" t="s">
-        <v>217</v>
       </c>
       <c r="V36" s="43">
         <f t="shared" si="3"/>
-        <v>-122.5</v>
+        <v>80.5</v>
       </c>
       <c r="W36" s="52">
+        <v>105</v>
+      </c>
+      <c r="X36" s="52">
         <v>75</v>
       </c>
-      <c r="X36" s="52">
-        <v>80</v>
+      <c r="Y36" t="s">
+        <v>222</v>
       </c>
       <c r="Z36" s="53">
         <f t="shared" si="0"/>
-        <v>277.5</v>
+        <v>99.5</v>
       </c>
       <c r="AA36">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="AC36" t="s">
         <v>221</v>
       </c>
       <c r="AD36">
-        <v>12</v>
-      </c>
-      <c r="AE36" s="19">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -5969,13 +5953,13 @@
       </c>
       <c r="AN36">
         <f t="shared" si="6"/>
-        <v>55.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO36">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -5985,7 +5969,7 @@
       </c>
       <c r="AS36">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -5995,20 +5979,12 @@
         <v>0</v>
       </c>
       <c r="AV36">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
-        <v>42823</v>
-      </c>
-      <c r="B37" t="s">
-        <v>259</v>
-      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="12">
-        <v>219.16</v>
-      </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="14"/>
       <c r="G37" s="59"/>
       <c r="H37" s="59"/>
@@ -6021,42 +5997,42 @@
       <c r="P37" s="59"/>
       <c r="Q37" s="39"/>
       <c r="S37" s="49">
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="T37" s="50" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="U37" s="51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V37" s="43">
         <f t="shared" si="3"/>
-        <v>80.5</v>
+        <v>65</v>
       </c>
       <c r="W37" s="52">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="X37" s="52">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="Z37" s="53">
         <f t="shared" si="0"/>
-        <v>99.5</v>
+        <v>50</v>
       </c>
       <c r="AA37">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="AC37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -6087,23 +6063,23 @@
       </c>
       <c r="AN37">
         <f t="shared" si="6"/>
-        <v>9.5</v>
+        <v>40</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS37">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -6113,20 +6089,12 @@
         <v>0</v>
       </c>
       <c r="AV37">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
-        <v>42824</v>
-      </c>
-      <c r="B38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="12">
-        <v>53</v>
-      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="14"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
@@ -6139,45 +6107,45 @@
       <c r="P38" s="59"/>
       <c r="Q38" s="39"/>
       <c r="S38" s="49">
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="T38" s="50" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="U38" s="51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V38" s="43">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>-126</v>
       </c>
       <c r="W38" s="52">
         <v>75</v>
       </c>
       <c r="X38" s="52">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="Y38" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="Z38" s="53">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AC38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -6205,23 +6173,23 @@
       </c>
       <c r="AN38">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AO38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS38">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -6231,20 +6199,12 @@
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
-        <v>42825</v>
-      </c>
-      <c r="B39" t="s">
-        <v>194</v>
-      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="12">
-        <v>217.9</v>
-      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="14"/>
       <c r="G39" s="59"/>
       <c r="H39" s="59"/>
@@ -6257,45 +6217,40 @@
       <c r="P39" s="59"/>
       <c r="Q39" s="39"/>
       <c r="S39" s="49">
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="T39" s="50" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="U39" s="51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="V39" s="43">
         <f t="shared" si="3"/>
-        <v>-126</v>
+        <v>25</v>
       </c>
       <c r="W39" s="52">
-        <v>75</v>
-      </c>
-      <c r="X39" s="52">
-        <v>127</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>234</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="X39" s="52"/>
       <c r="Z39" s="53">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="AA39">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="AB39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AD39">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AE39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -6323,23 +6278,23 @@
       </c>
       <c r="AN39">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO39">
         <v>20</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS39">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -6349,21 +6304,13 @@
         <v>0</v>
       </c>
       <c r="AV39">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
-        <v>42825</v>
-      </c>
-      <c r="B40" t="s">
-        <v>266</v>
-      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="14">
-        <v>250</v>
-      </c>
+      <c r="E40" s="14"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -6375,37 +6322,36 @@
       <c r="P40" s="59"/>
       <c r="Q40" s="39"/>
       <c r="S40" s="49">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="T40" s="50" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="U40" s="51" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="V40" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>-10</v>
       </c>
       <c r="W40" s="52">
-        <v>120</v>
-      </c>
-      <c r="X40" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="52">
+        <v>0</v>
+      </c>
       <c r="Z40" s="53">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="AA40">
-        <v>25</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AD40">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -6436,23 +6382,23 @@
       </c>
       <c r="AN40">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <v>0</v>
       </c>
       <c r="AS40">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -6480,36 +6426,31 @@
       <c r="P41" s="59"/>
       <c r="Q41" s="39"/>
       <c r="S41" s="49">
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="T41" s="50" t="s">
         <v>107</v>
       </c>
       <c r="U41" s="51" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="V41" s="43">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>96.5</v>
       </c>
       <c r="W41" s="52">
-        <v>0</v>
-      </c>
-      <c r="X41" s="52">
-        <v>0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="X41" s="52"/>
       <c r="Z41" s="53">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="AC41" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -6540,13 +6481,13 @@
       </c>
       <c r="AN41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -6556,7 +6497,7 @@
       </c>
       <c r="AS41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -6566,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="AV41">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.25">
@@ -6584,37 +6525,43 @@
       <c r="P42" s="59"/>
       <c r="Q42" s="39"/>
       <c r="S42" s="49">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="T42" s="50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U42" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V42" s="43">
         <f t="shared" si="3"/>
-        <v>96.5</v>
+        <v>-38.5</v>
       </c>
       <c r="W42" s="52">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="X42" s="52"/>
       <c r="Z42" s="53">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>113.5</v>
+      </c>
+      <c r="AA42">
+        <v>60</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>245</v>
       </c>
       <c r="AC42" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AD42">
+        <v>6</v>
+      </c>
+      <c r="AE42">
         <v>3</v>
       </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
       <c r="AF42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -6639,10 +6586,10 @@
       </c>
       <c r="AN42">
         <f t="shared" si="6"/>
-        <v>25.5</v>
+        <v>34.5</v>
       </c>
       <c r="AO42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP42">
         <v>2</v>
@@ -6651,11 +6598,11 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -6665,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.25">
@@ -6683,43 +6630,48 @@
       <c r="P43" s="59"/>
       <c r="Q43" s="39"/>
       <c r="S43" s="49">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="T43" s="50" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="U43" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V43" s="43">
         <f t="shared" si="3"/>
-        <v>-38.5</v>
+        <v>-21.5</v>
       </c>
       <c r="W43" s="52">
-        <v>75</v>
-      </c>
-      <c r="X43" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="X43" s="52">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>251</v>
+      </c>
       <c r="Z43" s="53">
         <f t="shared" si="0"/>
-        <v>113.5</v>
+        <v>111.5</v>
       </c>
       <c r="AA43">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AB43" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="AC43" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="AD43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -6744,9 +6696,9 @@
       </c>
       <c r="AN43">
         <f t="shared" si="6"/>
-        <v>34.5</v>
-      </c>
-      <c r="AO43">
+        <v>35.5</v>
+      </c>
+      <c r="AO43" s="12">
         <v>20</v>
       </c>
       <c r="AP43">
@@ -6756,11 +6708,11 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS43">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -6770,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="AV43">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.25">
@@ -6788,48 +6740,43 @@
       <c r="P44" s="59"/>
       <c r="Q44" s="39"/>
       <c r="S44" s="49">
-        <v>42823</v>
+        <v>42824</v>
       </c>
       <c r="T44" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="U44" s="51" t="s">
-        <v>254</v>
+        <v>62</v>
+      </c>
+      <c r="U44" s="101" t="s">
+        <v>252</v>
       </c>
       <c r="V44" s="43">
         <f t="shared" si="3"/>
-        <v>-21.5</v>
+        <v>-112.5</v>
       </c>
       <c r="W44" s="52">
-        <v>80</v>
-      </c>
-      <c r="X44" s="52">
-        <v>10</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>257</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X44" s="52"/>
       <c r="Z44" s="53">
         <f t="shared" si="0"/>
-        <v>111.5</v>
+        <v>187.5</v>
       </c>
       <c r="AA44">
-        <v>69</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>185</v>
+        <v>95</v>
+      </c>
+      <c r="AB44" s="77" t="s">
+        <v>256</v>
       </c>
       <c r="AC44" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="AD44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -6854,13 +6801,13 @@
       </c>
       <c r="AN44">
         <f t="shared" si="6"/>
-        <v>35.5</v>
+        <v>26.5</v>
       </c>
       <c r="AO44" s="12">
-        <v>20</v>
-      </c>
-      <c r="AP44">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="AP44" s="12">
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -6870,7 +6817,7 @@
       </c>
       <c r="AS44">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -6880,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="AV44">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
@@ -6898,43 +6845,45 @@
       <c r="P45" s="59"/>
       <c r="Q45" s="39"/>
       <c r="S45" s="49">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="T45" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="U45" s="103" t="s">
-        <v>258</v>
+        <v>82</v>
+      </c>
+      <c r="U45" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="V45" s="43">
         <f t="shared" si="3"/>
-        <v>-112.5</v>
+        <v>85</v>
       </c>
       <c r="W45" s="52">
         <v>75</v>
       </c>
-      <c r="X45" s="52"/>
+      <c r="X45" s="52">
+        <v>20</v>
+      </c>
       <c r="Z45" s="53">
         <f t="shared" si="0"/>
-        <v>187.5</v>
+        <v>10</v>
       </c>
       <c r="AA45">
-        <v>95</v>
-      </c>
-      <c r="AB45" s="78" t="s">
-        <v>262</v>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="77" t="s">
+        <v>259</v>
       </c>
       <c r="AC45" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AD45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -6959,34 +6908,17 @@
       </c>
       <c r="AN45">
         <f t="shared" si="6"/>
-        <v>26.5</v>
-      </c>
-      <c r="AO45" s="12">
-        <v>12</v>
-      </c>
-      <c r="AP45" s="12">
-        <v>1</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="AT45">
         <v>0</v>
       </c>
       <c r="AU45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AV45">
-        <v>14.5</v>
-      </c>
+      <c r="AW45" s="40"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
@@ -7002,40 +6934,21 @@
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
       <c r="Q46" s="39"/>
-      <c r="S46" s="49">
-        <v>42825</v>
-      </c>
-      <c r="T46" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="U46" s="51" t="s">
-        <v>261</v>
-      </c>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="51"/>
       <c r="V46" s="43">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="W46" s="52">
-        <v>75</v>
-      </c>
-      <c r="X46" s="52">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
       <c r="Z46" s="53">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -7076,7 +6989,6 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AW46" s="40"/>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C47" s="13"/>
@@ -8432,7 +8344,7 @@
       <c r="W66" s="52"/>
       <c r="X66" s="52"/>
       <c r="Z66" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Z66:Z129" si="9">SUM(AA66,AD66,AE66,AF66,AG66,AH66,AI66,AJ66,AK66,AL66,AM66,AN66)</f>
         <v>0</v>
       </c>
       <c r="AD66">
@@ -8496,13 +8408,13 @@
       <c r="T67" s="50"/>
       <c r="U67" s="51"/>
       <c r="V67" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V67:V130" si="10">(SUM(W67,X67))-Z67</f>
         <v>0</v>
       </c>
       <c r="W67" s="52"/>
       <c r="X67" s="52"/>
       <c r="Z67" s="53">
-        <f t="shared" ref="Z67:Z130" si="9">SUM(AA67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD67">
@@ -8544,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="AU67">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AU67:AU130" si="11">AT67*5</f>
         <v>0</v>
       </c>
     </row>
@@ -8566,7 +8478,7 @@
       <c r="T68" s="50"/>
       <c r="U68" s="51"/>
       <c r="V68" s="43">
-        <f t="shared" ref="V68:V131" si="10">(SUM(W68,X68))-Z68</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W68" s="52"/>
@@ -8614,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <f t="shared" ref="AU68:AU131" si="11">AT68*5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -9726,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="AN84">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AN84:AN147" si="12">SUM(AO84,AV84,AU84)</f>
         <v>0</v>
       </c>
       <c r="AS84">
@@ -9796,11 +9708,11 @@
         <v>0</v>
       </c>
       <c r="AN85">
-        <f t="shared" ref="AN85:AN148" si="12">SUM(AO85,AV85,AU85)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS85">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AS85:AS148" si="13">(AP85*6)+(AQ85*8)+(AR85*5)</f>
         <v>0</v>
       </c>
       <c r="AU85">
@@ -9870,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <f t="shared" ref="AS86:AS149" si="13">(AP86*6)+(AQ86*8)+(AR86*5)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU86">
@@ -12912,7 +12824,7 @@
       <c r="W130" s="52"/>
       <c r="X130" s="52"/>
       <c r="Z130" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="Z130:Z193" si="14">SUM(AA130,AD130,AE130,AF130,AG130,AH130,AI130,AJ130,AK130,AL130,AM130,AN130)</f>
         <v>0</v>
       </c>
       <c r="AD130">
@@ -12976,13 +12888,13 @@
       <c r="T131" s="50"/>
       <c r="U131" s="51"/>
       <c r="V131" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="V131:V194" si="15">(SUM(W131,X131))-Z131</f>
         <v>0</v>
       </c>
       <c r="W131" s="52"/>
       <c r="X131" s="52"/>
       <c r="Z131" s="53">
-        <f t="shared" ref="Z131:Z194" si="14">SUM(AA131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD131">
@@ -13024,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="AU131">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AU131:AU194" si="16">AT131*5</f>
         <v>0</v>
       </c>
     </row>
@@ -13046,7 +12958,7 @@
       <c r="T132" s="50"/>
       <c r="U132" s="51"/>
       <c r="V132" s="43">
-        <f t="shared" ref="V132:V195" si="15">(SUM(W132,X132))-Z132</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W132" s="52"/>
@@ -13094,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="AU132">
-        <f t="shared" ref="AU132:AU195" si="16">AT132*5</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14206,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AN148:AN211" si="17">SUM(AO148,AV148,AU148)</f>
         <v>0</v>
       </c>
       <c r="AS148">
@@ -14276,11 +14188,11 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <f t="shared" ref="AN149:AN212" si="17">SUM(AO149,AV149,AU149)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS149">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AS149:AS212" si="18">(AP149*6)+(AQ149*8)+(AR149*5)</f>
         <v>0</v>
       </c>
       <c r="AU149">
@@ -14350,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <f t="shared" ref="AS150:AS213" si="18">(AP150*6)+(AQ150*8)+(AR150*5)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AU150">
@@ -17392,7 +17304,7 @@
       <c r="W194" s="52"/>
       <c r="X194" s="52"/>
       <c r="Z194" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="Z194:Z257" si="19">SUM(AA194,AD194,AE194,AF194,AG194,AH194,AI194,AJ194,AK194,AL194,AM194,AN194)</f>
         <v>0</v>
       </c>
       <c r="AD194">
@@ -17456,13 +17368,13 @@
       <c r="T195" s="50"/>
       <c r="U195" s="51"/>
       <c r="V195" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="V195:V258" si="20">(SUM(W195,X195))-Z195</f>
         <v>0</v>
       </c>
       <c r="W195" s="52"/>
       <c r="X195" s="52"/>
       <c r="Z195" s="53">
-        <f t="shared" ref="Z195:Z258" si="19">SUM(AA195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD195">
@@ -17504,7 +17416,7 @@
         <v>0</v>
       </c>
       <c r="AU195">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AU195:AU258" si="21">AT195*5</f>
         <v>0</v>
       </c>
     </row>
@@ -17526,7 +17438,7 @@
       <c r="T196" s="50"/>
       <c r="U196" s="51"/>
       <c r="V196" s="43">
-        <f t="shared" ref="V196:V259" si="20">(SUM(W196,X196))-Z196</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W196" s="52"/>
@@ -17574,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="AU196">
-        <f t="shared" ref="AU196:AU259" si="21">AT196*5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18686,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="AN212">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AN212:AN275" si="22">SUM(AO212,AV212,AU212)</f>
         <v>0</v>
       </c>
       <c r="AS212">
@@ -18756,11 +18668,11 @@
         <v>0</v>
       </c>
       <c r="AN213">
-        <f t="shared" ref="AN213:AN276" si="22">SUM(AO213,AV213,AU213)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS213">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AS213:AS276" si="23">(AP213*6)+(AQ213*8)+(AR213*5)</f>
         <v>0</v>
       </c>
       <c r="AU213">
@@ -18830,7 +18742,7 @@
         <v>0</v>
       </c>
       <c r="AS214">
-        <f t="shared" ref="AS214:AS277" si="23">(AP214*6)+(AQ214*8)+(AR214*5)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AU214">
@@ -21872,7 +21784,7 @@
       <c r="W258" s="52"/>
       <c r="X258" s="52"/>
       <c r="Z258" s="53">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Z258:Z321" si="24">SUM(AA258,AD258,AE258,AF258,AG258,AH258,AI258,AJ258,AK258,AL258,AM258,AN258)</f>
         <v>0</v>
       </c>
       <c r="AD258">
@@ -21936,13 +21848,13 @@
       <c r="T259" s="50"/>
       <c r="U259" s="51"/>
       <c r="V259" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="V259:V322" si="25">(SUM(W259,X259))-Z259</f>
         <v>0</v>
       </c>
       <c r="W259" s="52"/>
       <c r="X259" s="52"/>
       <c r="Z259" s="53">
-        <f t="shared" ref="Z259:Z322" si="24">SUM(AA259,AD259,AE259,AF259,AG259,AH259,AI259,AJ259,AK259,AL259,AM259,AN259)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD259">
@@ -21984,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="AU259">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AU259:AU322" si="26">AT259*5</f>
         <v>0</v>
       </c>
     </row>
@@ -22006,7 +21918,7 @@
       <c r="T260" s="50"/>
       <c r="U260" s="51"/>
       <c r="V260" s="43">
-        <f t="shared" ref="V260:V323" si="25">(SUM(W260,X260))-Z260</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W260" s="52"/>
@@ -22054,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="AU260">
-        <f t="shared" ref="AU260:AU323" si="26">AT260*5</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -23166,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="AN276">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AN276:AN339" si="27">SUM(AO276,AV276,AU276)</f>
         <v>0</v>
       </c>
       <c r="AS276">
@@ -23236,11 +23148,11 @@
         <v>0</v>
       </c>
       <c r="AN277">
-        <f t="shared" ref="AN277:AN340" si="27">SUM(AO277,AV277,AU277)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AS277">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AS277:AS340" si="28">(AP277*6)+(AQ277*8)+(AR277*5)</f>
         <v>0</v>
       </c>
       <c r="AU277">
@@ -23310,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="AS278">
-        <f t="shared" ref="AS278:AS341" si="28">(AP278*6)+(AQ278*8)+(AR278*5)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU278">
@@ -23885,9 +23797,9 @@
       <c r="G287" s="59"/>
       <c r="H287" s="59"/>
       <c r="I287" s="59"/>
-      <c r="J287" s="24"/>
-      <c r="K287" s="23"/>
-      <c r="L287" s="21"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="22"/>
       <c r="N287" s="59"/>
       <c r="O287" s="59"/>
       <c r="P287" s="59"/>
@@ -23961,7 +23873,7 @@
       <c r="N288" s="59"/>
       <c r="O288" s="59"/>
       <c r="P288" s="59"/>
-      <c r="Q288" s="39"/>
+      <c r="Q288" s="37"/>
       <c r="S288" s="50"/>
       <c r="T288" s="50"/>
       <c r="U288" s="51"/>
@@ -25841,7 +25753,6 @@
     <row r="315" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C315" s="13"/>
       <c r="D315" s="12"/>
-      <c r="E315" s="14"/>
       <c r="G315" s="59"/>
       <c r="H315" s="59"/>
       <c r="I315" s="59"/>
@@ -25911,7 +25822,6 @@
     <row r="316" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C316" s="13"/>
       <c r="D316" s="12"/>
-      <c r="E316" s="14"/>
       <c r="G316" s="59"/>
       <c r="H316" s="59"/>
       <c r="I316" s="59"/>
@@ -25981,7 +25891,6 @@
     <row r="317" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C317" s="13"/>
       <c r="D317" s="12"/>
-      <c r="E317" s="14"/>
       <c r="G317" s="59"/>
       <c r="H317" s="59"/>
       <c r="I317" s="59"/>
@@ -26051,7 +25960,6 @@
     <row r="318" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C318" s="13"/>
       <c r="D318" s="12"/>
-      <c r="E318" s="14"/>
       <c r="G318" s="59"/>
       <c r="H318" s="59"/>
       <c r="I318" s="59"/>
@@ -26348,7 +26256,7 @@
       <c r="W322" s="52"/>
       <c r="X322" s="52"/>
       <c r="Z322" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="Z322:Z385" si="29">SUM(AA322,AD322,AE322,AF322,AG322,AH322,AI322,AJ322,AK322,AL322,AM322,AN322)</f>
         <v>0</v>
       </c>
       <c r="AD322">
@@ -26411,13 +26319,13 @@
       <c r="T323" s="50"/>
       <c r="U323" s="51"/>
       <c r="V323" s="43">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="V323:V386" si="30">(SUM(W323,X323))-Z323</f>
         <v>0</v>
       </c>
       <c r="W323" s="52"/>
       <c r="X323" s="52"/>
       <c r="Z323" s="53">
-        <f t="shared" ref="Z323:Z386" si="29">SUM(AA323,AD323,AE323,AF323,AG323,AH323,AI323,AJ323,AK323,AL323,AM323,AN323)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AD323">
@@ -26459,7 +26367,7 @@
         <v>0</v>
       </c>
       <c r="AU323">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AU323:AU386" si="31">AT323*5</f>
         <v>0</v>
       </c>
     </row>
@@ -26480,7 +26388,7 @@
       <c r="T324" s="50"/>
       <c r="U324" s="51"/>
       <c r="V324" s="43">
-        <f t="shared" ref="V324:V387" si="30">(SUM(W324,X324))-Z324</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W324" s="52"/>
@@ -26528,7 +26436,7 @@
         <v>0</v>
       </c>
       <c r="AU324">
-        <f t="shared" ref="AU324:AU387" si="31">AT324*5</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -27624,7 +27532,7 @@
         <v>0</v>
       </c>
       <c r="AN340">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AN340:AN403" si="32">SUM(AO340,AV340,AU340)</f>
         <v>0</v>
       </c>
       <c r="AS340">
@@ -27693,11 +27601,11 @@
         <v>0</v>
       </c>
       <c r="AN341">
-        <f t="shared" ref="AN341:AN404" si="32">SUM(AO341,AV341,AU341)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS341">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AS341:AS404" si="33">(AP341*6)+(AQ341*8)+(AR341*5)</f>
         <v>0</v>
       </c>
       <c r="AU341">
@@ -27766,7 +27674,7 @@
         <v>0</v>
       </c>
       <c r="AS342">
-        <f t="shared" ref="AS342:AS405" si="33">(AP342*6)+(AQ342*8)+(AR342*5)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AU342">
@@ -28539,7 +28447,7 @@
       <c r="G354" s="59"/>
       <c r="H354" s="59"/>
       <c r="I354" s="59"/>
-      <c r="J354" s="26"/>
+      <c r="J354" s="25"/>
       <c r="K354" s="14"/>
       <c r="L354" s="22"/>
       <c r="N354" s="59"/>
@@ -29776,7 +29684,7 @@
       </c>
     </row>
     <row r="372" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C372" s="13"/>
+      <c r="C372" s="11"/>
       <c r="D372" s="12"/>
       <c r="G372" s="59"/>
       <c r="H372" s="59"/>
@@ -29845,7 +29753,7 @@
       </c>
     </row>
     <row r="373" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C373" s="13"/>
+      <c r="C373" s="11"/>
       <c r="D373" s="12"/>
       <c r="G373" s="59"/>
       <c r="H373" s="59"/>
@@ -29914,7 +29822,7 @@
       </c>
     </row>
     <row r="374" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C374" s="13"/>
+      <c r="C374" s="11"/>
       <c r="D374" s="12"/>
       <c r="G374" s="59"/>
       <c r="H374" s="59"/>
@@ -29983,7 +29891,7 @@
       </c>
     </row>
     <row r="375" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C375" s="13"/>
+      <c r="C375" s="11"/>
       <c r="D375" s="12"/>
       <c r="G375" s="59"/>
       <c r="H375" s="59"/>
@@ -30192,9 +30100,6 @@
     <row r="378" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C378" s="11"/>
       <c r="D378" s="12"/>
-      <c r="G378" s="59"/>
-      <c r="H378" s="59"/>
-      <c r="I378" s="59"/>
       <c r="J378" s="25"/>
       <c r="K378" s="14"/>
       <c r="L378" s="22"/>
@@ -30740,7 +30645,7 @@
       <c r="W386" s="52"/>
       <c r="X386" s="52"/>
       <c r="Z386" s="53">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Z386:Z449" si="34">SUM(AA386,AD386,AE386,AF386,AG386,AH386,AI386,AJ386,AK386,AL386,AM386,AN386)</f>
         <v>0</v>
       </c>
       <c r="AD386">
@@ -30800,13 +30705,13 @@
       <c r="T387" s="50"/>
       <c r="U387" s="51"/>
       <c r="V387" s="43">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="V387:V450" si="35">(SUM(W387,X387))-Z387</f>
         <v>0</v>
       </c>
       <c r="W387" s="52"/>
       <c r="X387" s="52"/>
       <c r="Z387" s="53">
-        <f t="shared" ref="Z387:Z450" si="34">SUM(AA387,AD387,AE387,AF387,AG387,AH387,AI387,AJ387,AK387,AL387,AM387,AN387)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD387">
@@ -30848,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="AU387">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AU387:AU450" si="36">AT387*5</f>
         <v>0</v>
       </c>
     </row>
@@ -30866,7 +30771,7 @@
       <c r="T388" s="50"/>
       <c r="U388" s="51"/>
       <c r="V388" s="43">
-        <f t="shared" ref="V388:V451" si="35">(SUM(W388,X388))-Z388</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W388" s="52"/>
@@ -30914,7 +30819,7 @@
         <v>0</v>
       </c>
       <c r="AU388">
-        <f t="shared" ref="AU388:AU451" si="36">AT388*5</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -31780,7 +31685,6 @@
       <c r="C402" s="11"/>
       <c r="D402" s="12"/>
       <c r="J402" s="25"/>
-      <c r="K402" s="14"/>
       <c r="L402" s="22"/>
       <c r="N402" s="59"/>
       <c r="O402" s="59"/>
@@ -31960,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="AN404">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AN404:AN467" si="37">SUM(AO404,AV404,AU404)</f>
         <v>0</v>
       </c>
       <c r="AS404">
@@ -32025,11 +31929,11 @@
         <v>0</v>
       </c>
       <c r="AN405">
-        <f t="shared" ref="AN405:AN468" si="37">SUM(AO405,AV405,AU405)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AS405">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AS405:AS468" si="38">(AP405*6)+(AQ405*8)+(AR405*5)</f>
         <v>0</v>
       </c>
       <c r="AU405">
@@ -32094,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="AS406">
-        <f t="shared" ref="AS406:AS469" si="38">(AP406*6)+(AQ406*8)+(AR406*5)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AU406">
@@ -33016,7 +32920,6 @@
       <c r="C421" s="11"/>
       <c r="D421" s="12"/>
       <c r="J421" s="25"/>
-      <c r="L421" s="22"/>
       <c r="N421" s="59"/>
       <c r="O421" s="59"/>
       <c r="P421" s="59"/>
@@ -34424,7 +34327,6 @@
     <row r="443" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C443" s="11"/>
       <c r="D443" s="12"/>
-      <c r="J443" s="25"/>
       <c r="N443" s="59"/>
       <c r="O443" s="59"/>
       <c r="P443" s="59"/>
@@ -34880,7 +34782,7 @@
       <c r="W450" s="52"/>
       <c r="X450" s="52"/>
       <c r="Z450" s="53">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="Z450:Z513" si="39">SUM(AA450,AD450,AE450,AF450,AG450,AH450,AI450,AJ450,AK450,AL450,AM450,AN450)</f>
         <v>0</v>
       </c>
       <c r="AD450">
@@ -34932,18 +34834,17 @@
       <c r="N451" s="59"/>
       <c r="O451" s="59"/>
       <c r="P451" s="59"/>
-      <c r="Q451" s="37"/>
       <c r="S451" s="50"/>
       <c r="T451" s="50"/>
       <c r="U451" s="51"/>
       <c r="V451" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="V451:V514" si="40">(SUM(W451,X451))-Z451</f>
         <v>0</v>
       </c>
       <c r="W451" s="52"/>
       <c r="X451" s="52"/>
       <c r="Z451" s="53">
-        <f t="shared" ref="Z451:Z514" si="39">SUM(AA451,AD451,AE451,AF451,AG451,AH451,AI451,AJ451,AK451,AL451,AM451,AN451)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AD451">
@@ -34985,7 +34886,7 @@
         <v>0</v>
       </c>
       <c r="AU451">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AU451:AU514" si="41">AT451*5</f>
         <v>0</v>
       </c>
     </row>
@@ -34999,7 +34900,7 @@
       <c r="T452" s="50"/>
       <c r="U452" s="51"/>
       <c r="V452" s="43">
-        <f t="shared" ref="V452:V515" si="40">(SUM(W452,X452))-Z452</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W452" s="52"/>
@@ -35047,7 +34948,7 @@
         <v>0</v>
       </c>
       <c r="AU452">
-        <f t="shared" ref="AU452:AU515" si="41">AT452*5</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -35424,7 +35325,6 @@
       </c>
     </row>
     <row r="459" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C459" s="11"/>
       <c r="D459" s="12"/>
       <c r="N459" s="59"/>
       <c r="O459" s="59"/>
@@ -35486,7 +35386,6 @@
       </c>
     </row>
     <row r="460" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C460" s="11"/>
       <c r="D460" s="12"/>
       <c r="N460" s="59"/>
       <c r="O460" s="59"/>
@@ -35548,7 +35447,6 @@
       </c>
     </row>
     <row r="461" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C461" s="11"/>
       <c r="D461" s="12"/>
       <c r="N461" s="59"/>
       <c r="O461" s="59"/>
@@ -35610,7 +35508,6 @@
       </c>
     </row>
     <row r="462" spans="3:47" x14ac:dyDescent="0.25">
-      <c r="C462" s="11"/>
       <c r="D462" s="12"/>
       <c r="N462" s="59"/>
       <c r="O462" s="59"/>
@@ -36025,7 +35922,7 @@
         <v>0</v>
       </c>
       <c r="AN468">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AN468:AN531" si="42">SUM(AO468,AV468,AU468)</f>
         <v>0</v>
       </c>
       <c r="AS468">
@@ -36086,11 +35983,11 @@
         <v>0</v>
       </c>
       <c r="AN469">
-        <f t="shared" ref="AN469:AN532" si="42">SUM(AO469,AV469,AU469)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS469">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AS469:AS532" si="43">(AP469*6)+(AQ469*8)+(AR469*5)</f>
         <v>0</v>
       </c>
       <c r="AU469">
@@ -36151,7 +36048,7 @@
         <v>0</v>
       </c>
       <c r="AS470">
-        <f t="shared" ref="AS470:AS533" si="43">(AP470*6)+(AQ470*8)+(AR470*5)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AU470">
@@ -36893,9 +36790,6 @@
     </row>
     <row r="483" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D483" s="12"/>
-      <c r="N483" s="59"/>
-      <c r="O483" s="59"/>
-      <c r="P483" s="59"/>
       <c r="S483" s="50"/>
       <c r="T483" s="50"/>
       <c r="U483" s="51"/>
@@ -38634,8 +38528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="D513" s="12"/>
+    <row r="513" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S513" s="50"/>
       <c r="T513" s="50"/>
       <c r="U513" s="51"/>
@@ -38692,8 +38585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="D514" s="12"/>
+    <row r="514" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S514" s="50"/>
       <c r="T514" s="50"/>
       <c r="U514" s="51"/>
@@ -38704,7 +38596,7 @@
       <c r="W514" s="52"/>
       <c r="X514" s="52"/>
       <c r="Z514" s="53">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="Z514:Z577" si="44">SUM(AA514,AD514,AE514,AF514,AG514,AH514,AI514,AJ514,AK514,AL514,AM514,AN514)</f>
         <v>0</v>
       </c>
       <c r="AD514">
@@ -38750,19 +38642,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="D515" s="12"/>
+    <row r="515" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S515" s="50"/>
       <c r="T515" s="50"/>
       <c r="U515" s="51"/>
       <c r="V515" s="43">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="V515:V519" si="45">(SUM(W515,X515))-Z515</f>
         <v>0</v>
       </c>
       <c r="W515" s="52"/>
       <c r="X515" s="52"/>
       <c r="Z515" s="53">
-        <f t="shared" ref="Z515:Z578" si="44">SUM(AA515,AD515,AE515,AF515,AG515,AH515,AI515,AJ515,AK515,AL515,AM515,AN515)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD515">
@@ -38804,17 +38695,16 @@
         <v>0</v>
       </c>
       <c r="AU515">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="D516" s="12"/>
+        <f t="shared" ref="AU515:AU578" si="46">AT515*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S516" s="50"/>
       <c r="T516" s="50"/>
       <c r="U516" s="51"/>
       <c r="V516" s="43">
-        <f t="shared" ref="V516:V520" si="45">(SUM(W516,X516))-Z516</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W516" s="52"/>
@@ -38862,11 +38752,11 @@
         <v>0</v>
       </c>
       <c r="AU516">
-        <f t="shared" ref="AU516:AU579" si="46">AT516*5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="4:47" x14ac:dyDescent="0.25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S517" s="50"/>
       <c r="T517" s="50"/>
       <c r="U517" s="51"/>
@@ -38923,7 +38813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="518" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S518" s="50"/>
       <c r="T518" s="50"/>
       <c r="U518" s="51"/>
@@ -38980,7 +38870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="519" spans="19:47" x14ac:dyDescent="0.25">
       <c r="S519" s="50"/>
       <c r="T519" s="50"/>
       <c r="U519" s="51"/>
@@ -39037,16 +38927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="4:47" x14ac:dyDescent="0.25">
-      <c r="S520" s="50"/>
-      <c r="T520" s="50"/>
-      <c r="U520" s="51"/>
-      <c r="V520" s="43">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="W520" s="52"/>
-      <c r="X520" s="52"/>
+    <row r="520" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z520" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39094,7 +38975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="521" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z521" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39142,7 +39023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="522" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z522" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39190,7 +39071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="523" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z523" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39238,7 +39119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="524" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z524" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39286,7 +39167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="525" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z525" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39334,7 +39215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="526" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z526" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39382,7 +39263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="527" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z527" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39430,7 +39311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="4:47" x14ac:dyDescent="0.25">
+    <row r="528" spans="19:47" x14ac:dyDescent="0.25">
       <c r="Z528" s="53">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -39658,7 +39539,7 @@
         <v>0</v>
       </c>
       <c r="AN532">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AN532:AN595" si="47">SUM(AO532,AV532,AU532)</f>
         <v>0</v>
       </c>
       <c r="AS532">
@@ -39706,11 +39587,11 @@
         <v>0</v>
       </c>
       <c r="AN533">
-        <f t="shared" ref="AN533:AN596" si="47">SUM(AO533,AV533,AU533)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AS533">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AS533:AS596" si="48">(AP533*6)+(AQ533*8)+(AR533*5)</f>
         <v>0</v>
       </c>
       <c r="AU533">
@@ -39758,7 +39639,7 @@
         <v>0</v>
       </c>
       <c r="AS534">
-        <f t="shared" ref="AS534:AS597" si="48">(AP534*6)+(AQ534*8)+(AR534*5)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AU534">
@@ -41831,40 +41712,6 @@
       </c>
     </row>
     <row r="578" spans="26:47" x14ac:dyDescent="0.25">
-      <c r="Z578" s="53">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD578">
-        <v>0</v>
-      </c>
-      <c r="AE578">
-        <v>0</v>
-      </c>
-      <c r="AF578">
-        <v>0</v>
-      </c>
-      <c r="AG578">
-        <v>0</v>
-      </c>
-      <c r="AH578">
-        <v>0</v>
-      </c>
-      <c r="AI578">
-        <v>0</v>
-      </c>
-      <c r="AJ578">
-        <v>0</v>
-      </c>
-      <c r="AK578">
-        <v>0</v>
-      </c>
-      <c r="AL578">
-        <v>0</v>
-      </c>
-      <c r="AM578">
-        <v>0</v>
-      </c>
       <c r="AN578">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -41888,7 +41735,7 @@
         <v>0</v>
       </c>
       <c r="AU579">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AU579:AU592" si="49">AT579*5</f>
         <v>0</v>
       </c>
     </row>
@@ -41902,7 +41749,7 @@
         <v>0</v>
       </c>
       <c r="AU580">
-        <f t="shared" ref="AU580:AU593" si="49">AT580*5</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -42074,7 +41921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="593" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AN593">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -42083,12 +41930,8 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AU593">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="40:47" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AN594">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -42098,7 +41941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="595" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AN595">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -42108,9 +41951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="596" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AN596">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AN596:AN597" si="50">SUM(AO596,AV596,AU596)</f>
         <v>0</v>
       </c>
       <c r="AS596">
@@ -42118,81 +41961,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="597" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AN597">
-        <f t="shared" ref="AN597:AN598" si="50">SUM(AO597,AV597,AU597)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AS597">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="40:47" x14ac:dyDescent="0.25">
-      <c r="AN598">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="AS597:AS660" si="51">(AP597*6)+(AQ597*8)+(AR597*5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS598">
-        <f t="shared" ref="AS598:AS661" si="51">(AP598*6)+(AQ598*8)+(AR598*5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="40:47" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS599">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="600" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS600">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="601" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS601">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="602" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS602">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="603" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS603">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="604" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS604">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="605" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS605">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="606" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS606">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="607" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS607">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="40:47" x14ac:dyDescent="0.25">
+    <row r="608" spans="40:45" x14ac:dyDescent="0.25">
       <c r="AS608">
         <f t="shared" si="51"/>
         <v>0</v>
@@ -42512,13 +42351,13 @@
     </row>
     <row r="661" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS661">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AS661:AS724" si="52">(AP661*6)+(AQ661*8)+(AR661*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS662">
-        <f t="shared" ref="AS662:AS725" si="52">(AP662*6)+(AQ662*8)+(AR662*5)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -42896,13 +42735,13 @@
     </row>
     <row r="725" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS725">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AS725:AS788" si="53">(AP725*6)+(AQ725*8)+(AR725*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS726">
-        <f t="shared" ref="AS726:AS789" si="53">(AP726*6)+(AQ726*8)+(AR726*5)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -43280,13 +43119,13 @@
     </row>
     <row r="789" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS789">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AS789:AS852" si="54">(AP789*6)+(AQ789*8)+(AR789*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="790" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS790">
-        <f t="shared" ref="AS790:AS853" si="54">(AP790*6)+(AQ790*8)+(AR790*5)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -43664,13 +43503,13 @@
     </row>
     <row r="853" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS853">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AS853:AS916" si="55">(AP853*6)+(AQ853*8)+(AR853*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="854" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS854">
-        <f t="shared" ref="AS854:AS917" si="55">(AP854*6)+(AQ854*8)+(AR854*5)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -44048,13 +43887,13 @@
     </row>
     <row r="917" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS917">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AS917:AS963" si="56">(AP917*6)+(AQ917*8)+(AR917*5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="918" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS918">
-        <f t="shared" ref="AS918:AS964" si="56">(AP918*6)+(AQ918*8)+(AR918*5)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -44324,12 +44163,6 @@
     </row>
     <row r="963" spans="45:45" x14ac:dyDescent="0.25">
       <c r="AS963">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="964" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS964">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
